--- a/data/Samples.xlsx
+++ b/data/Samples.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hannahhapich/Desktop/Microplastics in Drinking Water/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\MooreInstitute\PeoplesLab\Code\Microplastic_Data_Portal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{53ABE7AF-8CF3-434D-B248-DCE5ED95002E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF2CF8D3-412E-4A2E-B699-4B982B2E6C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="500" windowWidth="14480" windowHeight="19420" xr2:uid="{CD5ACE8A-6375-B146-B238-6D9FD9B7D503}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD5ACE8A-6375-B146-B238-6D9FD9B7D503}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2295,24 +2295,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5CAE574-8F80-204B-9567-29245D50A0EC}">
   <dimension ref="A1:J1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A158" workbookViewId="0">
-      <selection activeCell="F191" sqref="F191"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="19.33203125" customWidth="1"/>
+    <col min="4" max="4" width="19.296875" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="19.83203125" customWidth="1"/>
+    <col min="6" max="6" width="19.796875" customWidth="1"/>
     <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" customWidth="1"/>
+    <col min="8" max="8" width="7.19921875" customWidth="1"/>
     <col min="9" max="9" width="10.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2344,7 +2344,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2376,7 +2376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2408,7 +2408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -2440,7 +2440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -2472,7 +2472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -2536,7 +2536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2568,7 +2568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>42</v>
       </c>
@@ -2600,7 +2600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -2696,7 +2696,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>42</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>42</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>42</v>
       </c>
@@ -2792,7 +2792,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -2824,7 +2824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>42</v>
       </c>
@@ -2856,7 +2856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>42</v>
       </c>
@@ -3016,7 +3016,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>42</v>
       </c>
@@ -3048,7 +3048,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>42</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>42</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>42</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>42</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>42</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>42</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>42</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>42</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>136</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>136</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>136</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>136</v>
       </c>
@@ -3528,7 +3528,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>136</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -3592,7 +3592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>136</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>136</v>
       </c>
@@ -3656,7 +3656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>136</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>136</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>136</v>
       </c>
@@ -3752,7 +3752,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>136</v>
       </c>
@@ -3784,7 +3784,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>136</v>
       </c>
@@ -3816,7 +3816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>136</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>136</v>
       </c>
@@ -3912,7 +3912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>136</v>
       </c>
@@ -3944,7 +3944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>136</v>
       </c>
@@ -3976,7 +3976,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>136</v>
       </c>
@@ -4008,7 +4008,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>136</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>136</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>136</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>136</v>
       </c>
@@ -4136,7 +4136,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>136</v>
       </c>
@@ -4168,7 +4168,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>136</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>136</v>
       </c>
@@ -4232,7 +4232,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>136</v>
       </c>
@@ -4264,7 +4264,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>211</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>211</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>211</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>211</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>211</v>
       </c>
@@ -4424,7 +4424,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>211</v>
       </c>
@@ -4456,7 +4456,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>211</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>211</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>211</v>
       </c>
@@ -4552,7 +4552,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>211</v>
       </c>
@@ -4584,7 +4584,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>211</v>
       </c>
@@ -4616,7 +4616,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>211</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>211</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>211</v>
       </c>
@@ -4712,7 +4712,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>211</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>211</v>
       </c>
@@ -4776,7 +4776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>211</v>
       </c>
@@ -4808,7 +4808,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>211</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>211</v>
       </c>
@@ -4872,7 +4872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>211</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>211</v>
       </c>
@@ -4936,7 +4936,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>211</v>
       </c>
@@ -4968,7 +4968,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>211</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>211</v>
       </c>
@@ -5032,7 +5032,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>254</v>
       </c>
@@ -5064,7 +5064,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>254</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>254</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>254</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>254</v>
       </c>
@@ -5192,7 +5192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>254</v>
       </c>
@@ -5224,7 +5224,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>254</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>254</v>
       </c>
@@ -5288,7 +5288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>254</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>254</v>
       </c>
@@ -5352,7 +5352,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>284</v>
       </c>
@@ -5384,7 +5384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>284</v>
       </c>
@@ -5416,7 +5416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>284</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>284</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>284</v>
       </c>
@@ -5512,7 +5512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>284</v>
       </c>
@@ -5544,7 +5544,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>284</v>
       </c>
@@ -5576,7 +5576,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>284</v>
       </c>
@@ -5608,7 +5608,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>284</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>284</v>
       </c>
@@ -5672,7 +5672,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>284</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>284</v>
       </c>
@@ -5736,7 +5736,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>284</v>
       </c>
@@ -5768,7 +5768,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>284</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>284</v>
       </c>
@@ -5832,7 +5832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>284</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>284</v>
       </c>
@@ -5896,7 +5896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>284</v>
       </c>
@@ -5928,7 +5928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>366</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>366</v>
       </c>
@@ -5992,7 +5992,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>366</v>
       </c>
@@ -6024,7 +6024,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>377</v>
       </c>
@@ -6056,7 +6056,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>377</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>384</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>388</v>
       </c>
@@ -6152,7 +6152,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>394</v>
       </c>
@@ -6184,7 +6184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>395</v>
       </c>
@@ -6216,7 +6216,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>396</v>
       </c>
@@ -6248,7 +6248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>404</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>404</v>
       </c>
@@ -6312,7 +6312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>404</v>
       </c>
@@ -6344,7 +6344,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>404</v>
       </c>
@@ -6376,7 +6376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>404</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>418</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>425</v>
       </c>
@@ -6472,7 +6472,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>432</v>
       </c>
@@ -6504,7 +6504,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>432</v>
       </c>
@@ -6536,7 +6536,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>432</v>
       </c>
@@ -6568,7 +6568,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>432</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>432</v>
       </c>
@@ -6632,7 +6632,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>432</v>
       </c>
@@ -6664,7 +6664,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>449</v>
       </c>
@@ -6693,7 +6693,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>449</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>449</v>
       </c>
@@ -6751,7 +6751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>449</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>449</v>
       </c>
@@ -6809,7 +6809,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>449</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>449</v>
       </c>
@@ -6867,7 +6867,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>449</v>
       </c>
@@ -6896,7 +6896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>449</v>
       </c>
@@ -6925,7 +6925,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>449</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>449</v>
       </c>
@@ -6983,7 +6983,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>449</v>
       </c>
@@ -7012,7 +7012,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>449</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -7070,7 +7070,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>449</v>
       </c>
@@ -7099,7 +7099,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>449</v>
       </c>
@@ -7128,7 +7128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>449</v>
       </c>
@@ -7157,7 +7157,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>449</v>
       </c>
@@ -7186,7 +7186,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>449</v>
       </c>
@@ -7215,7 +7215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>449</v>
       </c>
@@ -7244,7 +7244,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>449</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>449</v>
       </c>
@@ -7302,7 +7302,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>449</v>
       </c>
@@ -7331,7 +7331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>449</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>449</v>
       </c>
@@ -7389,7 +7389,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>449</v>
       </c>
@@ -7418,7 +7418,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>449</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>449</v>
       </c>
@@ -7476,7 +7476,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>449</v>
       </c>
@@ -7505,7 +7505,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>449</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>449</v>
       </c>
@@ -7563,7 +7563,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>449</v>
       </c>
@@ -7592,7 +7592,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>449</v>
       </c>
@@ -7621,7 +7621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>449</v>
       </c>
@@ -7650,7 +7650,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>449</v>
       </c>
@@ -7679,7 +7679,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>449</v>
       </c>
@@ -7708,7 +7708,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>449</v>
       </c>
@@ -7737,7 +7737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>449</v>
       </c>
@@ -7766,7 +7766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>449</v>
       </c>
@@ -7795,7 +7795,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>449</v>
       </c>
@@ -7824,7 +7824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="177" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>449</v>
       </c>
@@ -7853,7 +7853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="178" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>449</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="179" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>449</v>
       </c>
@@ -7911,7 +7911,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="180" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>449</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="181" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>449</v>
       </c>
@@ -7969,7 +7969,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="182" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>449</v>
       </c>
@@ -7998,7 +7998,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="183" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>449</v>
       </c>
@@ -8027,7 +8027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="184" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>449</v>
       </c>
@@ -8056,7 +8056,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="185" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>449</v>
       </c>
@@ -8085,7 +8085,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="186" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>449</v>
       </c>
@@ -8114,7 +8114,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="187" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>449</v>
       </c>
@@ -8143,7 +8143,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="188" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>449</v>
       </c>
@@ -8172,7 +8172,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="189" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>449</v>
       </c>
@@ -8201,7 +8201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="190" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>449</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="191" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>449</v>
       </c>
@@ -8259,7 +8259,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="192" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>449</v>
       </c>
@@ -8288,7 +8288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="193" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>449</v>
       </c>
@@ -8317,7 +8317,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="194" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>449</v>
       </c>
@@ -8346,7 +8346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="195" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>449</v>
       </c>
@@ -8375,7 +8375,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="196" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>449</v>
       </c>
@@ -8404,7 +8404,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="197" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>449</v>
       </c>
@@ -8433,7 +8433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="198" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>449</v>
       </c>
@@ -8462,7 +8462,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="199" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>449</v>
       </c>
@@ -8491,7 +8491,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1048576" t="s">
         <v>449</v>
       </c>
